--- a/Notater/Framdriftsplan 2.0.xlsx
+++ b/Notater/Framdriftsplan 2.0.xlsx
@@ -236,59 +236,59 @@
     <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -573,7 +573,7 @@
   <dimension ref="A1:U17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M20" sqref="M20"/>
+      <selection activeCell="S7" sqref="S7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -691,70 +691,70 @@
       </c>
     </row>
     <row r="4" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A4" s="11" t="s">
+      <c r="A4" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="19" t="s">
-        <v>8</v>
-      </c>
-      <c r="C4" s="12"/>
-      <c r="D4" s="12"/>
-      <c r="E4" s="12"/>
-      <c r="F4" s="12"/>
-      <c r="G4" s="12"/>
-      <c r="H4" s="12"/>
-      <c r="I4" s="12"/>
-      <c r="J4" s="12"/>
-      <c r="K4" s="12"/>
-      <c r="L4" s="13" t="s">
+      <c r="B4" s="16" t="s">
+        <v>8</v>
+      </c>
+      <c r="C4" s="11"/>
+      <c r="D4" s="11"/>
+      <c r="E4" s="11"/>
+      <c r="F4" s="11"/>
+      <c r="G4" s="11"/>
+      <c r="H4" s="11"/>
+      <c r="I4" s="11"/>
+      <c r="J4" s="11"/>
+      <c r="K4" s="11"/>
+      <c r="L4" s="20" t="s">
         <v>9</v>
       </c>
-      <c r="M4" s="13"/>
-      <c r="N4" s="13"/>
-      <c r="O4" s="12"/>
-      <c r="P4" s="12"/>
-      <c r="Q4" s="12"/>
-      <c r="R4" s="12"/>
-      <c r="S4" s="12"/>
-      <c r="T4" s="14"/>
+      <c r="M4" s="20"/>
+      <c r="N4" s="20"/>
+      <c r="O4" s="11"/>
+      <c r="P4" s="11"/>
+      <c r="Q4" s="11"/>
+      <c r="R4" s="11"/>
+      <c r="S4" s="11"/>
+      <c r="T4" s="12"/>
     </row>
     <row r="5" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A5" s="8" t="s">
+      <c r="A5" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="B5" s="20"/>
-      <c r="C5" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="D5" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="E5" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="F5" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="G5" s="6"/>
-      <c r="H5" s="6"/>
-      <c r="I5" s="6"/>
-      <c r="J5" s="6"/>
-      <c r="K5" s="6"/>
-      <c r="L5" s="5"/>
-      <c r="M5" s="5"/>
-      <c r="N5" s="5"/>
-      <c r="O5" s="6"/>
-      <c r="P5" s="6"/>
-      <c r="Q5" s="6"/>
-      <c r="R5" s="6"/>
-      <c r="S5" s="6"/>
-      <c r="T5" s="10"/>
+      <c r="B5" s="17"/>
+      <c r="C5" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="D5" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="E5" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="F5" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="G5" s="5"/>
+      <c r="H5" s="5"/>
+      <c r="I5" s="5"/>
+      <c r="J5" s="5"/>
+      <c r="K5" s="5"/>
+      <c r="L5" s="21"/>
+      <c r="M5" s="21"/>
+      <c r="N5" s="21"/>
+      <c r="O5" s="5"/>
+      <c r="P5" s="5"/>
+      <c r="Q5" s="5"/>
+      <c r="R5" s="5"/>
+      <c r="S5" s="5"/>
+      <c r="T5" s="9"/>
     </row>
     <row r="6" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A6" s="7" t="s">
+      <c r="A6" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="B6" s="21"/>
+      <c r="B6" s="18"/>
       <c r="C6" s="4"/>
       <c r="D6" s="4"/>
       <c r="E6" s="4"/>
@@ -768,49 +768,49 @@
       <c r="I6" s="4"/>
       <c r="J6" s="4"/>
       <c r="K6" s="4"/>
-      <c r="L6" s="5"/>
-      <c r="M6" s="5"/>
-      <c r="N6" s="5"/>
+      <c r="L6" s="21"/>
+      <c r="M6" s="21"/>
+      <c r="N6" s="21"/>
       <c r="O6" s="4"/>
       <c r="P6" s="4"/>
       <c r="Q6" s="4"/>
       <c r="R6" s="4"/>
       <c r="S6" s="4"/>
-      <c r="T6" s="9"/>
+      <c r="T6" s="8"/>
     </row>
     <row r="7" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A7" s="8" t="s">
+      <c r="A7" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="B7" s="20"/>
-      <c r="C7" s="6"/>
-      <c r="D7" s="6"/>
-      <c r="E7" s="6"/>
-      <c r="F7" s="6"/>
-      <c r="G7" s="6"/>
-      <c r="H7" s="6"/>
-      <c r="I7" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="J7" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="K7" s="6"/>
-      <c r="L7" s="5"/>
-      <c r="M7" s="5"/>
-      <c r="N7" s="5"/>
-      <c r="O7" s="6"/>
-      <c r="P7" s="6"/>
-      <c r="Q7" s="6"/>
-      <c r="R7" s="6"/>
-      <c r="S7" s="6"/>
-      <c r="T7" s="10"/>
+      <c r="B7" s="17"/>
+      <c r="C7" s="5"/>
+      <c r="D7" s="5"/>
+      <c r="E7" s="5"/>
+      <c r="F7" s="5"/>
+      <c r="G7" s="5"/>
+      <c r="H7" s="5"/>
+      <c r="I7" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="J7" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="K7" s="5"/>
+      <c r="L7" s="21"/>
+      <c r="M7" s="21"/>
+      <c r="N7" s="21"/>
+      <c r="O7" s="5"/>
+      <c r="P7" s="5"/>
+      <c r="Q7" s="5"/>
+      <c r="R7" s="5"/>
+      <c r="S7" s="5"/>
+      <c r="T7" s="9"/>
     </row>
     <row r="8" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A8" s="7" t="s">
+      <c r="A8" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="B8" s="21"/>
+      <c r="B8" s="18"/>
       <c r="C8" s="4"/>
       <c r="D8" s="4"/>
       <c r="E8" s="4"/>
@@ -822,9 +822,9 @@
       <c r="K8" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="L8" s="5"/>
-      <c r="M8" s="5"/>
-      <c r="N8" s="5"/>
+      <c r="L8" s="21"/>
+      <c r="M8" s="21"/>
+      <c r="N8" s="21"/>
       <c r="O8" s="4" t="s">
         <v>8</v>
       </c>
@@ -832,41 +832,41 @@
       <c r="Q8" s="4"/>
       <c r="R8" s="4"/>
       <c r="S8" s="4"/>
-      <c r="T8" s="9"/>
+      <c r="T8" s="8"/>
     </row>
     <row r="9" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A9" s="8" t="s">
+      <c r="A9" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="B9" s="20"/>
-      <c r="C9" s="6"/>
-      <c r="D9" s="6"/>
-      <c r="E9" s="6"/>
-      <c r="F9" s="6"/>
-      <c r="G9" s="6"/>
-      <c r="H9" s="6"/>
-      <c r="I9" s="6"/>
-      <c r="J9" s="6"/>
-      <c r="K9" s="6"/>
-      <c r="L9" s="5"/>
-      <c r="M9" s="5"/>
-      <c r="N9" s="5"/>
-      <c r="O9" s="6"/>
-      <c r="P9" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="Q9" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="R9" s="6"/>
-      <c r="S9" s="6"/>
-      <c r="T9" s="10"/>
+      <c r="B9" s="17"/>
+      <c r="C9" s="5"/>
+      <c r="D9" s="5"/>
+      <c r="E9" s="5"/>
+      <c r="F9" s="5"/>
+      <c r="G9" s="5"/>
+      <c r="H9" s="5"/>
+      <c r="I9" s="5"/>
+      <c r="J9" s="5"/>
+      <c r="K9" s="5"/>
+      <c r="L9" s="21"/>
+      <c r="M9" s="21"/>
+      <c r="N9" s="21"/>
+      <c r="O9" s="5"/>
+      <c r="P9" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q9" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="R9" s="5"/>
+      <c r="S9" s="5"/>
+      <c r="T9" s="9"/>
     </row>
     <row r="10" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A10" s="7" t="s">
+      <c r="A10" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="B10" s="21"/>
+      <c r="B10" s="18"/>
       <c r="C10" s="4"/>
       <c r="D10" s="4"/>
       <c r="E10" s="4"/>
@@ -876,9 +876,9 @@
       <c r="I10" s="4"/>
       <c r="J10" s="4"/>
       <c r="K10" s="4"/>
-      <c r="L10" s="5"/>
-      <c r="M10" s="5"/>
-      <c r="N10" s="5"/>
+      <c r="L10" s="21"/>
+      <c r="M10" s="21"/>
+      <c r="N10" s="21"/>
       <c r="O10" s="4"/>
       <c r="P10" s="4"/>
       <c r="Q10" s="4"/>
@@ -886,33 +886,33 @@
         <v>8</v>
       </c>
       <c r="S10" s="4"/>
-      <c r="T10" s="9"/>
+      <c r="T10" s="8"/>
     </row>
     <row r="11" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A11" s="15" t="s">
+      <c r="A11" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="B11" s="22"/>
-      <c r="C11" s="16"/>
-      <c r="D11" s="16"/>
-      <c r="E11" s="16"/>
-      <c r="F11" s="16"/>
-      <c r="G11" s="16"/>
-      <c r="H11" s="16"/>
-      <c r="I11" s="16"/>
-      <c r="J11" s="16"/>
-      <c r="K11" s="16"/>
-      <c r="L11" s="17"/>
-      <c r="M11" s="17"/>
-      <c r="N11" s="17"/>
-      <c r="O11" s="16"/>
-      <c r="P11" s="16"/>
-      <c r="Q11" s="16"/>
-      <c r="R11" s="16"/>
-      <c r="S11" s="16" t="s">
-        <v>8</v>
-      </c>
-      <c r="T11" s="18" t="s">
+      <c r="B11" s="19"/>
+      <c r="C11" s="14"/>
+      <c r="D11" s="14"/>
+      <c r="E11" s="14"/>
+      <c r="F11" s="14"/>
+      <c r="G11" s="14"/>
+      <c r="H11" s="14"/>
+      <c r="I11" s="14"/>
+      <c r="J11" s="14"/>
+      <c r="K11" s="14"/>
+      <c r="L11" s="22"/>
+      <c r="M11" s="22"/>
+      <c r="N11" s="22"/>
+      <c r="O11" s="14"/>
+      <c r="P11" s="14"/>
+      <c r="Q11" s="14"/>
+      <c r="R11" s="14"/>
+      <c r="S11" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="T11" s="15" t="s">
         <v>8</v>
       </c>
     </row>
